--- a/LLM/SCRM_LLM/LLM_Classifier_Output.xlsx
+++ b/LLM/SCRM_LLM/LLM_Classifier_Output.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassinezahrouni/coding/test/LLM/SCRM_LLM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086B126-A50A-0E4E-B119-5C21AFCB1CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>news_article_id</t>
-  </si>
-  <si>
-    <t>supply_chain_relevance</t>
-  </si>
-  <si>
-    <t>relevance_reason</t>
-  </si>
-  <si>
-    <t>impacted_supplier_ids</t>
-  </si>
-  <si>
-    <t>impacted_routesegments</t>
-  </si>
-  <si>
-    <t>shipment_itinerarynumber</t>
-  </si>
-  <si>
-    <t>Segment_rank</t>
-  </si>
-  <si>
-    <t>Risk categories and potential causes</t>
-  </si>
-  <si>
-    <t>NA123</t>
-  </si>
-  <si>
-    <t>The article discusses a shortage of copper concentrate in China, leading to smelter shutdowns. This directly affects the supply of copper, a key material in many supply chains, and impacts suppliers and shipments involving Chinese manufacturing or those dependent on Chinese copper supply.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Supply and Demand Risk (material shortages); Operational and Labor Risk (capacity constraints, production bottlenecks)</t>
-  </si>
-  <si>
-    <t>Route-A1-Seg1</t>
-  </si>
-  <si>
-    <t>Route-A1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +420,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" customWidth="1"/>
-    <col min="4" max="4" width="78.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="99" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>news_article_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>supply_chain_relevance</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>relevance_reason</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>impacted_supplier_ids</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>impacted_routesegments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Risk categories and potential causes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>output_date</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NA127</t>
+        </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The article discusses heavy storms in the Mediterranean Sea causing disruptions in maritime logistics, specifically mentioning Italian and Tunisian ports. This directly affects suppliers and shipments relying on these ports and shipping lanes, leading to potential delays and impacting production schedules.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36 (location-based); 38 (location-based); 48 (location-based)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Route-A15-Seg1; Route-A16-Seg1; Route-A17-Seg1; Route-A22-Seg1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Environmental and Natural Risk (natural disasters); Logistics and Transportation Risk (transportation disruptions)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NA127</t>
+        </is>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The article reports heavy storms causing disruptions in Mediterranean ports (Italian and Tunisian). This directly impacts maritime logistics, causing delays and affecting industries reliant on these shipping lanes.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36 (location-based);48 (location-based)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Route-A16-Seg1;Route-A17-Seg1;Route-A22-Seg1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Environmental and Natural Risk (natural disasters); Logistics and Transportation Risk (transportation disruptions)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NA127</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The article discusses heavy storms in the Mediterranean Sea, causing disruptions and delays in key ports, which directly impacts maritime logistics and industries relying on these shipping lanes. This can lead to production schedule disruptions due to delays in raw material and finished goods delivery.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36 (location-based); 38 (location-based); 48 (location-based)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Route-A16-Seg1; Route-A17-Seg1; Route-A22-Seg1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Environmental and Natural Risk (natural disasters); Logistics and Transportation Risk (transportation disruptions)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
       </c>
     </row>
   </sheetData>
